--- a/download/playoff-2017-a.xlsx
+++ b/download/playoff-2017-a.xlsx
@@ -17,6 +17,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">List1!$A$1:$G$58</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0" vbProcedure="false">List1!$A$1:$G$58</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0" vbProcedure="false">List1!$A$1:$G$58</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0" vbProcedure="false">List1!$A$1:$G$58</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="61">
   <si>
     <t xml:space="preserve">Finále Liga A – 19. 3. 2017 - o 1. až 8. místo</t>
   </si>
@@ -54,12 +55,36 @@
     <t xml:space="preserve">HUKVALDY</t>
   </si>
   <si>
+    <t xml:space="preserve">2:0 (16, 18)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:0 (23, 21)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:0 (14, 10)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rintintin</t>
   </si>
   <si>
+    <t xml:space="preserve">0:2 (-19, -24)</t>
+  </si>
+  <si>
     <t xml:space="preserve">STS CHVOJKOVICE BROD</t>
   </si>
   <si>
+    <t xml:space="preserve">Wadowice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:2 (-16, -20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:2 (-25, -23)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BVC ČADCA</t>
+  </si>
+  <si>
     <t xml:space="preserve">5. místo</t>
   </si>
   <si>
@@ -75,15 +100,27 @@
     <t xml:space="preserve">mistr ligy</t>
   </si>
   <si>
-    <t xml:space="preserve">Wadowice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BVC ČADCA</t>
+    <t xml:space="preserve">2:0 (17, 22)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:1 (35, -16, 13)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:2 (-20, 23, -12)</t>
   </si>
   <si>
     <t xml:space="preserve">Bon-Bon Těšín</t>
   </si>
   <si>
+    <t xml:space="preserve">2:1 (-26, 16, 11)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:0 (23, 13)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:2 (-16, -23)</t>
+  </si>
+  <si>
     <t xml:space="preserve">7. místo</t>
   </si>
   <si>
@@ -102,15 +139,36 @@
     <t xml:space="preserve">Šenow</t>
   </si>
   <si>
+    <t xml:space="preserve">1:2 (16, -23, -13)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Zajda tým</t>
   </si>
   <si>
+    <t xml:space="preserve">2:1 (-16, 21, 7)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:0 (14, 20)</t>
+  </si>
+  <si>
     <t xml:space="preserve">MINTONETTE</t>
   </si>
   <si>
+    <t xml:space="preserve">1:2 (-22, 23, -14)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pupíci</t>
   </si>
   <si>
+    <t xml:space="preserve">S.T.O.H.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:2 (-22, 21, -13)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:1 (22, -28, 6)</t>
+  </si>
+  <si>
     <t xml:space="preserve">13. místo</t>
   </si>
   <si>
@@ -126,7 +184,13 @@
     <t xml:space="preserve">9. místo</t>
   </si>
   <si>
-    <t xml:space="preserve">S.T.O.H.</t>
+    <t xml:space="preserve">2:0 (26, 20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:0 (0, 0) kont.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:0 (17, 13)</t>
   </si>
   <si>
     <t xml:space="preserve">ANTIFÉRTÝM</t>
@@ -135,7 +199,10 @@
     <t xml:space="preserve">ŻYWIEC TEAM</t>
   </si>
   <si>
-    <t xml:space="preserve">16. místo</t>
+    <t xml:space="preserve">2:0 (23, 24)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15. místo</t>
   </si>
   <si>
     <t xml:space="preserve">o 15. - 16. místo</t>
@@ -331,7 +398,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="33">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -376,8 +443,8 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -393,7 +460,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -416,10 +483,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -448,10 +511,6 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -460,20 +519,12 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -499,16 +550,16 @@
   </sheetPr>
   <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D53" activeCellId="0" sqref="D53"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J27" activeCellId="0" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="27.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="28.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="27.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="27.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -564,9 +615,15 @@
     <row r="5" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="5"/>
       <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
+      <c r="C5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
@@ -585,11 +642,19 @@
     </row>
     <row r="7" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="14"/>
+      <c r="B7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>9</v>
+      </c>
       <c r="D7" s="5"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="6"/>
+      <c r="E7" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="G7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -597,7 +662,7 @@
       <c r="B8" s="16"/>
       <c r="C8" s="17"/>
       <c r="D8" s="6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E8" s="18" t="n">
         <v>4</v>
@@ -608,84 +673,112 @@
     <row r="9" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="5"/>
       <c r="B9" s="17"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="22"/>
+      <c r="C9" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="21"/>
       <c r="G9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="5"/>
       <c r="B10" s="17"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="23" t="s">
-        <v>9</v>
+      <c r="D10" s="22" t="s">
+        <v>13</v>
       </c>
       <c r="E10" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="F10" s="22"/>
+      <c r="F10" s="21"/>
       <c r="G10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9"/>
-      <c r="B11" s="24"/>
+      <c r="A11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>15</v>
+      </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="7"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="20"/>
+      <c r="F11" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>11</v>
+      <c r="A12" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>19</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="6" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E12" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="F12" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="26" t="s">
-        <v>14</v>
+      <c r="F12" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="5"/>
       <c r="B13" s="17"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="22"/>
+      <c r="C13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="21"/>
       <c r="G13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="5"/>
-      <c r="B14" s="30"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="12"/>
       <c r="D14" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E14" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="F14" s="22"/>
+      <c r="F14" s="21"/>
       <c r="G14" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="5"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="14"/>
+      <c r="B15" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>24</v>
+      </c>
       <c r="D15" s="5"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="23"/>
+      <c r="E15" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>17</v>
+      </c>
       <c r="G15" s="5"/>
     </row>
     <row r="16" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -693,7 +786,7 @@
       <c r="B16" s="5"/>
       <c r="C16" s="17"/>
       <c r="D16" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E16" s="18" t="n">
         <v>2</v>
@@ -704,9 +797,15 @@
     <row r="17" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="32"/>
+      <c r="C17" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>17</v>
+      </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
     </row>
@@ -714,8 +813,8 @@
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="23" t="s">
-        <v>17</v>
+      <c r="D18" s="22" t="s">
+        <v>26</v>
       </c>
       <c r="E18" s="7" t="n">
         <v>7</v>
@@ -725,11 +824,15 @@
     </row>
     <row r="19" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
+      <c r="B19" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="6"/>
+      <c r="F19" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="G19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -747,7 +850,7 @@
       <c r="C21" s="8"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="22"/>
+      <c r="F21" s="21"/>
       <c r="G21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -756,33 +859,41 @@
       <c r="C22" s="8"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
-      <c r="F22" s="22"/>
+      <c r="F22" s="21"/>
       <c r="G22" s="5"/>
     </row>
     <row r="23" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9"/>
-      <c r="B23" s="24"/>
+      <c r="A23" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>28</v>
+      </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="20"/>
+      <c r="F23" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="27" t="s">
-        <v>19</v>
+      <c r="A24" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>31</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
-      <c r="F24" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" s="26" t="s">
-        <v>21</v>
+      <c r="F24" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -791,7 +902,7 @@
       <c r="C25" s="8"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
-      <c r="F25" s="22"/>
+      <c r="F25" s="21"/>
       <c r="G25" s="5"/>
     </row>
     <row r="26" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -800,52 +911,56 @@
       <c r="C26" s="8"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
-      <c r="F26" s="22"/>
+      <c r="F26" s="21"/>
       <c r="G26" s="5"/>
     </row>
     <row r="27" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="5"/>
-      <c r="B27" s="20"/>
+      <c r="B27" s="20" t="s">
+        <v>26</v>
+      </c>
       <c r="C27" s="8"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
-      <c r="F27" s="9"/>
+      <c r="F27" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="G27" s="5"/>
     </row>
     <row r="28" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="5"/>
-      <c r="B28" s="33"/>
+      <c r="B28" s="30"/>
       <c r="C28" s="8"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
-      <c r="F28" s="33"/>
+      <c r="F28" s="30"/>
       <c r="G28" s="5"/>
     </row>
     <row r="29" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="5"/>
-      <c r="B29" s="33"/>
+      <c r="B29" s="30"/>
       <c r="C29" s="8"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
-      <c r="F29" s="33"/>
+      <c r="F29" s="30"/>
       <c r="G29" s="5"/>
     </row>
     <row r="30" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="5"/>
-      <c r="B30" s="33"/>
+      <c r="B30" s="30"/>
       <c r="C30" s="8"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
-      <c r="F30" s="33"/>
+      <c r="F30" s="30"/>
       <c r="G30" s="5"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C31" s="34"/>
-      <c r="E31" s="34"/>
+      <c r="C31" s="31"/>
+      <c r="E31" s="31"/>
     </row>
     <row r="32" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -887,7 +1002,7 @@
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="6" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E35" s="7" t="n">
         <v>9</v>
@@ -898,9 +1013,15 @@
     <row r="36" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="5"/>
       <c r="B36" s="8"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="11"/>
+      <c r="C36" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
     </row>
@@ -909,7 +1030,7 @@
       <c r="B37" s="5"/>
       <c r="C37" s="12"/>
       <c r="D37" s="9" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E37" s="13" t="n">
         <v>16</v>
@@ -919,11 +1040,19 @@
     </row>
     <row r="38" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="8"/>
-      <c r="B38" s="36"/>
-      <c r="C38" s="14"/>
+      <c r="B38" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>38</v>
+      </c>
       <c r="D38" s="5"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="20"/>
+      <c r="E38" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F38" s="20" t="s">
+        <v>37</v>
+      </c>
       <c r="G38" s="5"/>
     </row>
     <row r="39" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -931,7 +1060,7 @@
       <c r="B39" s="16"/>
       <c r="C39" s="17"/>
       <c r="D39" s="6" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E39" s="18" t="n">
         <v>12</v>
@@ -942,84 +1071,112 @@
     <row r="40" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="5"/>
       <c r="B40" s="17"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="22"/>
+      <c r="C40" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F40" s="21"/>
       <c r="G40" s="5"/>
     </row>
     <row r="41" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="5"/>
       <c r="B41" s="17"/>
       <c r="C41" s="5"/>
-      <c r="D41" s="23" t="s">
-        <v>26</v>
+      <c r="D41" s="22" t="s">
+        <v>42</v>
       </c>
       <c r="E41" s="7" t="n">
         <v>13</v>
       </c>
-      <c r="F41" s="22"/>
+      <c r="F41" s="21"/>
       <c r="G41" s="5"/>
     </row>
     <row r="42" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="9"/>
-      <c r="B42" s="24"/>
+      <c r="A42" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>44</v>
+      </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="7"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="20"/>
+      <c r="F42" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="G42" s="20" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B43" s="27" t="s">
-        <v>28</v>
+      <c r="A43" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>47</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="6" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="E43" s="7" t="n">
         <v>11</v>
       </c>
-      <c r="F43" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="G43" s="26" t="s">
-        <v>31</v>
+      <c r="F43" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="G43" s="25" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="5"/>
       <c r="B44" s="17"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="22"/>
+      <c r="C44" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E44" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F44" s="21"/>
       <c r="G44" s="5"/>
     </row>
     <row r="45" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="5"/>
-      <c r="B45" s="30"/>
+      <c r="B45" s="28"/>
       <c r="C45" s="12"/>
       <c r="D45" s="9" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E45" s="13" t="n">
         <v>14</v>
       </c>
-      <c r="F45" s="22"/>
+      <c r="F45" s="21"/>
       <c r="G45" s="5"/>
     </row>
     <row r="46" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="5"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="14"/>
+      <c r="B46" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="D46" s="5"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="23"/>
+      <c r="E46" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F46" s="22" t="s">
+        <v>48</v>
+      </c>
       <c r="G46" s="5"/>
     </row>
     <row r="47" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1027,7 +1184,7 @@
       <c r="B47" s="5"/>
       <c r="C47" s="17"/>
       <c r="D47" s="6" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="E47" s="18" t="n">
         <v>10</v>
@@ -1038,8 +1195,15 @@
     <row r="48" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
-      <c r="C48" s="23"/>
-      <c r="E48" s="32"/>
+      <c r="C48" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D48" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E48" s="22" t="s">
+        <v>54</v>
+      </c>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
     </row>
@@ -1047,8 +1211,8 @@
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
-      <c r="D49" s="23" t="s">
-        <v>34</v>
+      <c r="D49" s="22" t="s">
+        <v>55</v>
       </c>
       <c r="E49" s="7" t="n">
         <v>15</v>
@@ -1058,11 +1222,15 @@
     </row>
     <row r="50" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="5"/>
-      <c r="B50" s="6"/>
+      <c r="B50" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
-      <c r="F50" s="6"/>
+      <c r="F50" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="G50" s="5"/>
     </row>
     <row r="51" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1080,7 +1248,7 @@
       <c r="C52" s="8"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
-      <c r="F52" s="22"/>
+      <c r="F52" s="21"/>
       <c r="G52" s="5"/>
     </row>
     <row r="53" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1089,33 +1257,41 @@
       <c r="C53" s="8"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
-      <c r="F53" s="22"/>
+      <c r="F53" s="21"/>
       <c r="G53" s="5"/>
     </row>
     <row r="54" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="9"/>
-      <c r="B54" s="24"/>
+      <c r="A54" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B54" s="23" t="s">
+        <v>52</v>
+      </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
-      <c r="F54" s="25"/>
-      <c r="G54" s="20"/>
+      <c r="F54" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="G54" s="20" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="B55" s="27" t="s">
-        <v>36</v>
+      <c r="A55" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" s="26" t="s">
+        <v>58</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
-      <c r="F55" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="G55" s="26" t="s">
-        <v>38</v>
+      <c r="F55" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="G55" s="25" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1124,7 +1300,7 @@
       <c r="C56" s="8"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
-      <c r="F56" s="22"/>
+      <c r="F56" s="21"/>
       <c r="G56" s="5"/>
     </row>
     <row r="57" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1133,16 +1309,20 @@
       <c r="C57" s="8"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
-      <c r="F57" s="22"/>
+      <c r="F57" s="21"/>
       <c r="G57" s="5"/>
     </row>
     <row r="58" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="5"/>
-      <c r="B58" s="20"/>
+      <c r="B58" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C58" s="8"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
-      <c r="F58" s="9"/>
+      <c r="F58" s="9" t="s">
+        <v>54</v>
+      </c>
       <c r="G58" s="5"/>
     </row>
   </sheetData>
@@ -1176,7 +1356,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.52"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1202,7 +1382,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.52"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
